--- a/TemplateNhapDiemLopHoc.xlsx
+++ b/TemplateNhapDiemLopHoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\CaoThangAngular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieu1\Desktop\CaoThangAngular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>hoten</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Mỹ</t>
+  </si>
+  <si>
+    <t>0306161293</t>
+  </si>
+  <si>
+    <t>0306161294</t>
   </si>
 </sst>
 </file>
@@ -86,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +379,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,54 +396,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>123456789</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
         <v>36483</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>123456789</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
         <v>117215</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="1"/>

--- a/TemplateNhapDiemLopHoc.xlsx
+++ b/TemplateNhapDiemLopHoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieu1\Desktop\CaoThangAngular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\CaoThangAngular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>hoten</t>
   </si>
@@ -41,22 +41,28 @@
     <t>tongdiem</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
     <t>Lâm Đồng</t>
   </si>
   <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
-    <t>Mỹ</t>
-  </si>
-  <si>
     <t>0306161293</t>
   </si>
   <si>
     <t>0306161294</t>
+  </si>
+  <si>
+    <t>11/09/1998</t>
+  </si>
+  <si>
+    <t>Bến Tre</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Cũ</t>
+  </si>
+  <si>
+    <t>Trần Thị Mới</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -379,13 +385,14 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -414,16 +421,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>36483</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -432,19 +439,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>117215</v>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="1"/>
     </row>

--- a/TemplateNhapDiemLopHoc.xlsx
+++ b/TemplateNhapDiemLopHoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\CaoThangAngular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieu1\Desktop\CaoThangAngular\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>hoten</t>
   </si>
@@ -62,7 +62,10 @@
     <t>Trần Thị Mới</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9.5</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,8 +435,8 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
-        <v>10</v>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -451,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1"/>
     </row>

--- a/TemplateNhapDiemLopHoc.xlsx
+++ b/TemplateNhapDiemLopHoc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>hoten</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>9.5</t>
   </si>
 </sst>
 </file>
@@ -388,7 +385,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +451,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1"/>
     </row>

--- a/TemplateNhapDiemLopHoc.xlsx
+++ b/TemplateNhapDiemLopHoc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>hoten</t>
   </si>
@@ -41,38 +41,279 @@
     <t>tongdiem</t>
   </si>
   <si>
-    <t>Lâm Đồng</t>
-  </si>
-  <si>
-    <t>0306161293</t>
-  </si>
-  <si>
-    <t>0306161294</t>
-  </si>
-  <si>
-    <t>11/09/1998</t>
-  </si>
-  <si>
-    <t>Bến Tre</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Cũ</t>
-  </si>
-  <si>
-    <t>Trần Thị Mới</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>Thạch Bình</t>
+  </si>
+  <si>
+    <t>Lương Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc</t>
+  </si>
+  <si>
+    <t>Đỗ Phước</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân</t>
+  </si>
+  <si>
+    <t>Lê Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Đức</t>
+  </si>
+  <si>
+    <t>Phan Châu</t>
+  </si>
+  <si>
+    <t>Võ Lê</t>
+  </si>
+  <si>
+    <t>Đinh Huỳnh</t>
+  </si>
+  <si>
+    <t>Đỗ Hữu</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim</t>
+  </si>
+  <si>
+    <t>Hồ Văn</t>
+  </si>
+  <si>
+    <t>Trần Đức</t>
+  </si>
+  <si>
+    <t>Phan Văn</t>
+  </si>
+  <si>
+    <t>Vũ Văn</t>
+  </si>
+  <si>
+    <t>Lê Quang</t>
+  </si>
+  <si>
+    <t>Đào Anh</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Nhật</t>
+  </si>
+  <si>
+    <t>Đặng Phước</t>
+  </si>
+  <si>
+    <t>Man Đức</t>
+  </si>
+  <si>
+    <t>Bạch Công</t>
+  </si>
+  <si>
+    <t>Võ Quang</t>
+  </si>
+  <si>
+    <t>0301171413</t>
+  </si>
+  <si>
+    <t>0223171002</t>
+  </si>
+  <si>
+    <t>0302151130</t>
+  </si>
+  <si>
+    <t>0223181014</t>
+  </si>
+  <si>
+    <t>0302151133</t>
+  </si>
+  <si>
+    <t>0304161156</t>
+  </si>
+  <si>
+    <t>0465151023</t>
+  </si>
+  <si>
+    <t>0302171431</t>
+  </si>
+  <si>
+    <t>0302171566</t>
+  </si>
+  <si>
+    <t>0303171131</t>
+  </si>
+  <si>
+    <t>0466161220</t>
+  </si>
+  <si>
+    <t>0302171696</t>
+  </si>
+  <si>
+    <t>0303171139</t>
+  </si>
+  <si>
+    <t>0303171548</t>
+  </si>
+  <si>
+    <t>0302151179</t>
+  </si>
+  <si>
+    <t>0465151058</t>
+  </si>
+  <si>
+    <t>0301161072</t>
+  </si>
+  <si>
+    <t>0223181074</t>
+  </si>
+  <si>
+    <t>0223171067</t>
+  </si>
+  <si>
+    <t>0303171169</t>
+  </si>
+  <si>
+    <t>0301161527</t>
+  </si>
+  <si>
+    <t>0301161104</t>
+  </si>
+  <si>
+    <t>0223171087</t>
+  </si>
+  <si>
+    <t>0303151110</t>
+  </si>
+  <si>
+    <t>09/09/1999</t>
+  </si>
+  <si>
+    <t>10/10/99</t>
+  </si>
+  <si>
+    <t>04/11/96</t>
+  </si>
+  <si>
+    <t>03/01/1999</t>
+  </si>
+  <si>
+    <t>27/07/97</t>
+  </si>
+  <si>
+    <t>15/10/1998</t>
+  </si>
+  <si>
+    <t>11/12/97</t>
+  </si>
+  <si>
+    <t>22/02/1999</t>
+  </si>
+  <si>
+    <t>14/08/1999</t>
+  </si>
+  <si>
+    <t>10/01/1999</t>
+  </si>
+  <si>
+    <t>07/03/97</t>
+  </si>
+  <si>
+    <t>30/09/1999</t>
+  </si>
+  <si>
+    <t>09/04/1999</t>
+  </si>
+  <si>
+    <t>07/10/1999</t>
+  </si>
+  <si>
+    <t>01/08/97</t>
+  </si>
+  <si>
+    <t>20/07/96</t>
+  </si>
+  <si>
+    <t>09/03/1997</t>
+  </si>
+  <si>
+    <t>14/03/2000</t>
+  </si>
+  <si>
+    <t>27/03/97</t>
+  </si>
+  <si>
+    <t>22/03/1999</t>
+  </si>
+  <si>
+    <t>18/04/1998</t>
+  </si>
+  <si>
+    <t>07/11/1998</t>
+  </si>
+  <si>
+    <t>01/01/99</t>
+  </si>
+  <si>
+    <t>17/07/97</t>
+  </si>
+  <si>
+    <t>Trà Vinh</t>
+  </si>
+  <si>
+    <t>TP HCM</t>
+  </si>
+  <si>
+    <t>Đồng Nai</t>
+  </si>
+  <si>
+    <t>Tây Ninh</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>Bình Định</t>
+  </si>
+  <si>
+    <t>Bà Rịa - Vũng Tàu</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>Bình Thuận</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>Đồng Tháp</t>
+  </si>
+  <si>
+    <t>Tiền Giang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,16 +336,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal_DS thi A_25_07_09" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,40 +672,414 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="5">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="5">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="5">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="5">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
